--- a/DbLayouts/L8-遵循法令作業/MlaundryParas.xlsx
+++ b/DbLayouts/L8-遵循法令作業/MlaundryParas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9708" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -292,6 +292,14 @@
   </si>
   <si>
     <t>L8201維護 : 統計期間天數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FactorDays3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>樣態三統計期間天數</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -852,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1024,7 +1032,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
-        <f t="shared" ref="A11:A19" si="0">A10+1</f>
+        <f t="shared" ref="A11:A20" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -1139,85 +1147,83 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="18">
-        <f t="shared" si="0"/>
+      <c r="A16" s="23">
+        <f>A15+1</f>
         <v>8</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="18">
-        <v>8</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="20"/>
+      <c r="B16" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="23">
+        <v>3</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
-        <f t="shared" si="0"/>
+        <f>A16+1</f>
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E17" s="18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
-        <f t="shared" si="0"/>
+        <f>A17+1</f>
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E18" s="18">
-        <v>8</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>19</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
-        <f t="shared" si="0"/>
+        <f>A18+1</f>
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E19" s="18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>19</v>
@@ -1227,13 +1233,27 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="20"/>
+      <c r="A20" s="4">
+        <v>12</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="18">
+        <v>6</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
@@ -1324,6 +1344,15 @@
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1345,7 +1374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
